--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_100ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_100ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2202,28 +2202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>948.5963482041785</v>
+        <v>1026.126066162938</v>
       </c>
       <c r="AB2" t="n">
-        <v>1297.911372730278</v>
+        <v>1403.990953211211</v>
       </c>
       <c r="AC2" t="n">
-        <v>1174.040532946952</v>
+        <v>1269.996027150411</v>
       </c>
       <c r="AD2" t="n">
-        <v>948596.3482041785</v>
+        <v>1026126.066162938</v>
       </c>
       <c r="AE2" t="n">
-        <v>1297911.372730278</v>
+        <v>1403990.953211211</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.768702799075394e-06</v>
+        <v>2.549875884756021e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.18333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1174040.532946952</v>
+        <v>1269996.027150411</v>
       </c>
     </row>
     <row r="3">
@@ -2308,28 +2308,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>338.6681015542753</v>
+        <v>381.6643483311005</v>
       </c>
       <c r="AB3" t="n">
-        <v>463.3806375287194</v>
+        <v>522.2099992293059</v>
       </c>
       <c r="AC3" t="n">
-        <v>419.1562398417871</v>
+        <v>472.3710098291972</v>
       </c>
       <c r="AD3" t="n">
-        <v>338668.1015542753</v>
+        <v>381664.3483311005</v>
       </c>
       <c r="AE3" t="n">
-        <v>463380.6375287194</v>
+        <v>522209.9992293059</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.282545503298865e-06</v>
+        <v>4.732329040159621e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.258333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>419156.2398417871</v>
+        <v>472371.0098291972</v>
       </c>
     </row>
     <row r="4">
@@ -2414,28 +2414,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>250.3877928933589</v>
+        <v>284.921264075296</v>
       </c>
       <c r="AB4" t="n">
-        <v>342.5916245663447</v>
+        <v>389.8418433468574</v>
       </c>
       <c r="AC4" t="n">
-        <v>309.8951607481999</v>
+        <v>352.6358849642961</v>
       </c>
       <c r="AD4" t="n">
-        <v>250387.7928933589</v>
+        <v>284921.264075296</v>
       </c>
       <c r="AE4" t="n">
-        <v>342591.6245663447</v>
+        <v>389841.8433468574</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.846388815607212e-06</v>
+        <v>5.545201878709771e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.902083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>309895.1607481999</v>
+        <v>352635.8849642961</v>
       </c>
     </row>
     <row r="5">
@@ -2520,28 +2520,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>225.1482481800961</v>
+        <v>259.5111271614406</v>
       </c>
       <c r="AB5" t="n">
-        <v>308.0577659995492</v>
+        <v>355.0745730051972</v>
       </c>
       <c r="AC5" t="n">
-        <v>278.6571651744335</v>
+        <v>321.1867541078735</v>
       </c>
       <c r="AD5" t="n">
-        <v>225148.2481800961</v>
+        <v>259511.1271614406</v>
       </c>
       <c r="AE5" t="n">
-        <v>308057.7659995492</v>
+        <v>355074.5730051972</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.076302673355712e-06</v>
+        <v>5.876660505761526e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.45625</v>
       </c>
       <c r="AH5" t="n">
-        <v>278657.1651744335</v>
+        <v>321186.7541078735</v>
       </c>
     </row>
     <row r="6">
@@ -2626,28 +2626,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>226.0900135122877</v>
+        <v>260.4528924936323</v>
       </c>
       <c r="AB6" t="n">
-        <v>309.3463308748073</v>
+        <v>356.363137880456</v>
       </c>
       <c r="AC6" t="n">
-        <v>279.8227512265095</v>
+        <v>322.3523401599497</v>
       </c>
       <c r="AD6" t="n">
-        <v>226090.0135122877</v>
+        <v>260452.8924936323</v>
       </c>
       <c r="AE6" t="n">
-        <v>309346.3308748073</v>
+        <v>356363.1378804559</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.076448557783217e-06</v>
+        <v>5.876870822149249e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.45625</v>
       </c>
       <c r="AH6" t="n">
-        <v>279822.7512265095</v>
+        <v>322352.3401599497</v>
       </c>
     </row>
   </sheetData>
@@ -2923,28 +2923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>582.0149720696353</v>
+        <v>640.7663447540642</v>
       </c>
       <c r="AB2" t="n">
-        <v>796.3385614740739</v>
+        <v>876.7247815085433</v>
       </c>
       <c r="AC2" t="n">
-        <v>720.3371268351782</v>
+        <v>793.0513988523262</v>
       </c>
       <c r="AD2" t="n">
-        <v>582014.9720696353</v>
+        <v>640766.3447540642</v>
       </c>
       <c r="AE2" t="n">
-        <v>796338.5614740739</v>
+        <v>876724.7815085433</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.332548410201924e-06</v>
+        <v>3.414763124506921e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.47916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>720337.1268351782</v>
+        <v>793051.3988523262</v>
       </c>
     </row>
     <row r="3">
@@ -3029,28 +3029,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>262.0283781827341</v>
+        <v>295.6128210567256</v>
       </c>
       <c r="AB3" t="n">
-        <v>358.5187869058082</v>
+        <v>404.4705032870539</v>
       </c>
       <c r="AC3" t="n">
-        <v>324.3022570677948</v>
+        <v>365.8684061312534</v>
       </c>
       <c r="AD3" t="n">
-        <v>262028.3781827341</v>
+        <v>295612.8210567256</v>
       </c>
       <c r="AE3" t="n">
-        <v>358518.7869058082</v>
+        <v>404470.503287054</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.741494577233832e-06</v>
+        <v>5.477407309962188e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.404166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>324302.2570677947</v>
+        <v>365868.4061312535</v>
       </c>
     </row>
     <row r="4">
@@ -3135,28 +3135,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>213.0876940212124</v>
+        <v>246.7573882412241</v>
       </c>
       <c r="AB4" t="n">
-        <v>291.5559837252753</v>
+        <v>337.6243447591467</v>
       </c>
       <c r="AC4" t="n">
-        <v>263.7302898400141</v>
+        <v>305.4019511541782</v>
       </c>
       <c r="AD4" t="n">
-        <v>213087.6940212124</v>
+        <v>246757.3882412241</v>
       </c>
       <c r="AE4" t="n">
-        <v>291555.9837252753</v>
+        <v>337624.3447591467</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.143533200731369e-06</v>
+        <v>6.065976730490555e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.587500000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>263730.2898400141</v>
+        <v>305401.9511541782</v>
       </c>
     </row>
     <row r="5">
@@ -3241,28 +3241,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>213.2918092621956</v>
+        <v>246.9615034822072</v>
       </c>
       <c r="AB5" t="n">
-        <v>291.8352632029172</v>
+        <v>337.9036242367887</v>
       </c>
       <c r="AC5" t="n">
-        <v>263.9829152762812</v>
+        <v>305.6545765904453</v>
       </c>
       <c r="AD5" t="n">
-        <v>213291.8092621956</v>
+        <v>246961.5034822072</v>
       </c>
       <c r="AE5" t="n">
-        <v>291835.2632029172</v>
+        <v>337903.6242367887</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.151078970691908e-06</v>
+        <v>6.07702345384882e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.575</v>
       </c>
       <c r="AH5" t="n">
-        <v>263982.9152762812</v>
+        <v>305654.5765904454</v>
       </c>
     </row>
   </sheetData>
@@ -3538,28 +3538,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>202.6843501346211</v>
+        <v>241.4354529512482</v>
       </c>
       <c r="AB2" t="n">
-        <v>277.3216696565079</v>
+        <v>330.3426381081908</v>
       </c>
       <c r="AC2" t="n">
-        <v>250.8544787279801</v>
+        <v>298.8152003660479</v>
       </c>
       <c r="AD2" t="n">
-        <v>202684.3501346211</v>
+        <v>241435.4529512482</v>
       </c>
       <c r="AE2" t="n">
-        <v>277321.6696565079</v>
+        <v>330342.6381081908</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.049673593254726e-06</v>
+        <v>6.265344911781783e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.6625</v>
       </c>
       <c r="AH2" t="n">
-        <v>250854.4787279801</v>
+        <v>298815.2003660479</v>
       </c>
     </row>
     <row r="3">
@@ -3644,28 +3644,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>201.0473854300722</v>
+        <v>239.7984882466992</v>
       </c>
       <c r="AB3" t="n">
-        <v>275.0819023299592</v>
+        <v>328.1028707816421</v>
       </c>
       <c r="AC3" t="n">
-        <v>248.8284716515433</v>
+        <v>296.7891932896111</v>
       </c>
       <c r="AD3" t="n">
-        <v>201047.3854300721</v>
+        <v>239798.4882466992</v>
       </c>
       <c r="AE3" t="n">
-        <v>275081.9023299592</v>
+        <v>328102.8707816422</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.08486910976297e-06</v>
+        <v>6.319796720105236e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.5875</v>
       </c>
       <c r="AH3" t="n">
-        <v>248828.4716515433</v>
+        <v>296789.1932896111</v>
       </c>
     </row>
   </sheetData>
@@ -3941,28 +3941,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>285.0893472871146</v>
+        <v>325.1966748458375</v>
       </c>
       <c r="AB2" t="n">
-        <v>390.0718222125755</v>
+        <v>444.9484371888333</v>
       </c>
       <c r="AC2" t="n">
-        <v>352.8439149698474</v>
+        <v>402.483182832584</v>
       </c>
       <c r="AD2" t="n">
-        <v>285089.3472871146</v>
+        <v>325196.6748458375</v>
       </c>
       <c r="AE2" t="n">
-        <v>390071.8222125755</v>
+        <v>444948.4371888333</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.433578735434206e-06</v>
+        <v>5.189146833023597e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.775</v>
       </c>
       <c r="AH2" t="n">
-        <v>352843.9149698474</v>
+        <v>402483.182832584</v>
       </c>
     </row>
     <row r="3">
@@ -4047,28 +4047,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>205.3666509977916</v>
+        <v>237.3672616987489</v>
       </c>
       <c r="AB3" t="n">
-        <v>280.9917120322584</v>
+        <v>324.7763593605928</v>
       </c>
       <c r="AC3" t="n">
-        <v>254.1742574103269</v>
+        <v>293.7801594497976</v>
       </c>
       <c r="AD3" t="n">
-        <v>205366.6509977916</v>
+        <v>237367.2616987489</v>
       </c>
       <c r="AE3" t="n">
-        <v>280991.7120322584</v>
+        <v>324776.3593605928</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.181900099207109e-06</v>
+        <v>6.320080396547954e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.025</v>
       </c>
       <c r="AH3" t="n">
-        <v>254174.2574103269</v>
+        <v>293780.1594497976</v>
       </c>
     </row>
   </sheetData>
@@ -4344,28 +4344,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>208.1212997438851</v>
+        <v>245.7447657289982</v>
       </c>
       <c r="AB2" t="n">
-        <v>284.7607439731874</v>
+        <v>336.2388299641676</v>
       </c>
       <c r="AC2" t="n">
-        <v>257.5835782326844</v>
+        <v>304.1486679466493</v>
       </c>
       <c r="AD2" t="n">
-        <v>208121.2997438851</v>
+        <v>245744.7657289982</v>
       </c>
       <c r="AE2" t="n">
-        <v>284760.7439731874</v>
+        <v>336238.8299641676</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.90352959568763e-06</v>
+        <v>6.169481645930936e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.335416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>257583.5782326844</v>
+        <v>304148.6679466493</v>
       </c>
     </row>
   </sheetData>
@@ -4641,28 +4641,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>658.3136358469112</v>
+        <v>717.5476630679728</v>
       </c>
       <c r="AB2" t="n">
-        <v>900.7337593136238</v>
+        <v>981.7803685783294</v>
       </c>
       <c r="AC2" t="n">
-        <v>814.768993512502</v>
+        <v>888.0806281386145</v>
       </c>
       <c r="AD2" t="n">
-        <v>658313.6358469112</v>
+        <v>717547.6630679729</v>
       </c>
       <c r="AE2" t="n">
-        <v>900733.7593136238</v>
+        <v>981780.3685783294</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.178038450044489e-06</v>
+        <v>3.175332393035342e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.30625</v>
       </c>
       <c r="AH2" t="n">
-        <v>814768.9935125019</v>
+        <v>888080.6281386146</v>
       </c>
     </row>
     <row r="3">
@@ -4747,28 +4747,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>278.6629506053167</v>
+        <v>320.9485230129467</v>
       </c>
       <c r="AB3" t="n">
-        <v>381.2789427599274</v>
+        <v>439.1359284358404</v>
       </c>
       <c r="AC3" t="n">
-        <v>344.8902155912762</v>
+        <v>397.2254117570695</v>
       </c>
       <c r="AD3" t="n">
-        <v>278662.9506053167</v>
+        <v>320948.5230129467</v>
       </c>
       <c r="AE3" t="n">
-        <v>381278.9427599274</v>
+        <v>439135.9284358404</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.615457082426388e-06</v>
+        <v>5.270925308606494e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.61875</v>
       </c>
       <c r="AH3" t="n">
-        <v>344890.2155912762</v>
+        <v>397225.4117570695</v>
       </c>
     </row>
     <row r="4">
@@ -4853,28 +4853,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>218.3718015355059</v>
+        <v>252.2685321452666</v>
       </c>
       <c r="AB4" t="n">
-        <v>298.7859327446988</v>
+        <v>345.1649349831635</v>
       </c>
       <c r="AC4" t="n">
-        <v>270.2702226723233</v>
+        <v>312.2228780305021</v>
       </c>
       <c r="AD4" t="n">
-        <v>218371.8015355059</v>
+        <v>252268.5321452667</v>
       </c>
       <c r="AE4" t="n">
-        <v>298785.9327446988</v>
+        <v>345164.9349831635</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.099881070594629e-06</v>
+        <v>5.977160398975337e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.599999999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>270270.2226723233</v>
+        <v>312222.8780305021</v>
       </c>
     </row>
     <row r="5">
@@ -4959,28 +4959,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>216.6659221975939</v>
+        <v>250.5626528073548</v>
       </c>
       <c r="AB5" t="n">
-        <v>296.4518733764839</v>
+        <v>342.8308756149486</v>
       </c>
       <c r="AC5" t="n">
-        <v>268.1589226543372</v>
+        <v>310.1115780125161</v>
       </c>
       <c r="AD5" t="n">
-        <v>216665.9221975939</v>
+        <v>250562.6528073548</v>
       </c>
       <c r="AE5" t="n">
-        <v>296451.8733764839</v>
+        <v>342830.8756149486</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.127400062204064e-06</v>
+        <v>6.017279959527318e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.550000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>268158.9226543372</v>
+        <v>310111.5780125161</v>
       </c>
     </row>
   </sheetData>
@@ -5256,28 +5256,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>218.7113745936635</v>
+        <v>255.8029331528614</v>
       </c>
       <c r="AB2" t="n">
-        <v>299.2505515837759</v>
+        <v>350.0008583685199</v>
       </c>
       <c r="AC2" t="n">
-        <v>270.6904989414957</v>
+        <v>316.5972676752228</v>
       </c>
       <c r="AD2" t="n">
-        <v>218711.3745936636</v>
+        <v>255802.9331528614</v>
       </c>
       <c r="AE2" t="n">
-        <v>299250.5515837759</v>
+        <v>350000.8583685199</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.724531457648164e-06</v>
+        <v>5.967574278943293e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.0125</v>
       </c>
       <c r="AH2" t="n">
-        <v>270690.4989414957</v>
+        <v>316597.2676752228</v>
       </c>
     </row>
   </sheetData>
@@ -5553,28 +5553,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>412.698015844097</v>
+        <v>461.9267005753422</v>
       </c>
       <c r="AB2" t="n">
-        <v>564.6716322293713</v>
+        <v>632.0284904949523</v>
       </c>
       <c r="AC2" t="n">
-        <v>510.7801641710128</v>
+        <v>571.708578419671</v>
       </c>
       <c r="AD2" t="n">
-        <v>412698.015844097</v>
+        <v>461926.7005753422</v>
       </c>
       <c r="AE2" t="n">
-        <v>564671.6322293713</v>
+        <v>632028.4904949523</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.829133739292206e-06</v>
+        <v>4.200819986557498e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.45</v>
       </c>
       <c r="AH2" t="n">
-        <v>510780.1641710128</v>
+        <v>571708.5784196709</v>
       </c>
     </row>
     <row r="3">
@@ -5659,28 +5659,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>209.1630702532952</v>
+        <v>242.0959215411864</v>
       </c>
       <c r="AB3" t="n">
-        <v>286.1861403438328</v>
+        <v>331.2463203707616</v>
       </c>
       <c r="AC3" t="n">
-        <v>258.8729367742723</v>
+        <v>299.6326364618051</v>
       </c>
       <c r="AD3" t="n">
-        <v>209163.0702532952</v>
+        <v>242095.9215411864</v>
       </c>
       <c r="AE3" t="n">
-        <v>286186.1403438328</v>
+        <v>331246.3203707616</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.121408018339061e-06</v>
+        <v>6.119644658625614e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.860416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>258872.9367742723</v>
+        <v>299632.6364618051</v>
       </c>
     </row>
     <row r="4">
@@ -5765,28 +5765,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>204.6176051369204</v>
+        <v>237.5504564248116</v>
       </c>
       <c r="AB4" t="n">
-        <v>279.9668344398438</v>
+        <v>325.0270144667725</v>
       </c>
       <c r="AC4" t="n">
-        <v>253.2471926969073</v>
+        <v>294.0068923844402</v>
       </c>
       <c r="AD4" t="n">
-        <v>204617.6051369204</v>
+        <v>237550.4564248116</v>
       </c>
       <c r="AE4" t="n">
-        <v>279966.8344398438</v>
+        <v>325027.0144667726</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.186713661125691e-06</v>
+        <v>6.216613298051509e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.7375</v>
       </c>
       <c r="AH4" t="n">
-        <v>253247.1926969074</v>
+        <v>294006.8923844402</v>
       </c>
     </row>
   </sheetData>
@@ -6062,28 +6062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>517.8616836513551</v>
+        <v>576.2858856483103</v>
       </c>
       <c r="AB2" t="n">
-        <v>708.5612020168463</v>
+        <v>788.4997726829622</v>
       </c>
       <c r="AC2" t="n">
-        <v>640.9371153682507</v>
+        <v>713.2464610444811</v>
       </c>
       <c r="AD2" t="n">
-        <v>517861.683651355</v>
+        <v>576285.8856483103</v>
       </c>
       <c r="AE2" t="n">
-        <v>708561.2020168463</v>
+        <v>788499.7726829622</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.484962175260839e-06</v>
+        <v>3.653993941564778e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.77291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>640937.1153682508</v>
+        <v>713246.461044481</v>
       </c>
     </row>
     <row r="3">
@@ -6168,28 +6168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>245.2375769857543</v>
+        <v>278.5863501263236</v>
       </c>
       <c r="AB3" t="n">
-        <v>335.5448719500735</v>
+        <v>381.1741346051944</v>
       </c>
       <c r="AC3" t="n">
-        <v>303.520940311444</v>
+        <v>344.7954101797317</v>
       </c>
       <c r="AD3" t="n">
-        <v>245237.5769857543</v>
+        <v>278586.3501263236</v>
       </c>
       <c r="AE3" t="n">
-        <v>335544.8719500735</v>
+        <v>381174.1346051943</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.877887757285843e-06</v>
+        <v>5.702210887658014e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.185416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>303520.9403114439</v>
+        <v>344795.4101797317</v>
       </c>
     </row>
     <row r="4">
@@ -6274,28 +6274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>210.537905108933</v>
+        <v>243.9719295955193</v>
       </c>
       <c r="AB4" t="n">
-        <v>288.0672500467485</v>
+        <v>333.8131573543328</v>
       </c>
       <c r="AC4" t="n">
-        <v>260.5745160072964</v>
+        <v>301.9544981262434</v>
       </c>
       <c r="AD4" t="n">
-        <v>210537.905108933</v>
+        <v>243971.9295955193</v>
       </c>
       <c r="AE4" t="n">
-        <v>288067.2500467486</v>
+        <v>333813.1573543327</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.154857975826964e-06</v>
+        <v>6.109479662458134e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.639583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>260574.5160072964</v>
+        <v>301954.4981262434</v>
       </c>
     </row>
     <row r="5">
@@ -6380,28 +6380,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>211.4674975771773</v>
+        <v>244.9015220637637</v>
       </c>
       <c r="AB5" t="n">
-        <v>289.3391594725251</v>
+        <v>335.0850667801093</v>
       </c>
       <c r="AC5" t="n">
-        <v>261.7250361826133</v>
+        <v>303.1050183015603</v>
       </c>
       <c r="AD5" t="n">
-        <v>211467.4975771773</v>
+        <v>244901.5220637636</v>
       </c>
       <c r="AE5" t="n">
-        <v>289339.1594725251</v>
+        <v>335085.0667801093</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.154553278116798e-06</v>
+        <v>6.109031622001808e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.639583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>261725.0361826133</v>
+        <v>303105.0183015603</v>
       </c>
     </row>
   </sheetData>
@@ -6677,28 +6677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>836.9299846246743</v>
+        <v>905.500694945287</v>
       </c>
       <c r="AB2" t="n">
-        <v>1145.124527708525</v>
+        <v>1238.945998695424</v>
       </c>
       <c r="AC2" t="n">
-        <v>1035.835449976392</v>
+        <v>1120.702731451563</v>
       </c>
       <c r="AD2" t="n">
-        <v>836929.9846246743</v>
+        <v>905500.6949452871</v>
       </c>
       <c r="AE2" t="n">
-        <v>1145124.527708525</v>
+        <v>1238945.998695424</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.900923530876036e-06</v>
+        <v>2.750203901744847e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.11666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1035835.449976392</v>
+        <v>1120702.731451563</v>
       </c>
     </row>
     <row r="3">
@@ -6783,28 +6783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>321.3905734633015</v>
+        <v>355.7186438051692</v>
       </c>
       <c r="AB3" t="n">
-        <v>439.7407613639053</v>
+        <v>486.7099416532279</v>
       </c>
       <c r="AC3" t="n">
-        <v>397.7725202793682</v>
+        <v>440.2590279235365</v>
       </c>
       <c r="AD3" t="n">
-        <v>321390.5734633015</v>
+        <v>355718.6438051692</v>
       </c>
       <c r="AE3" t="n">
-        <v>439740.7613639053</v>
+        <v>486709.9416532279</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.384370315085633e-06</v>
+        <v>4.896413924240555e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.052083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>397772.5202793682</v>
+        <v>440259.0279235365</v>
       </c>
     </row>
     <row r="4">
@@ -6889,28 +6889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>238.450310150291</v>
+        <v>272.7782909836107</v>
       </c>
       <c r="AB4" t="n">
-        <v>326.2582340327176</v>
+        <v>373.2272918526493</v>
       </c>
       <c r="AC4" t="n">
-        <v>295.1206060830393</v>
+        <v>337.6070029460258</v>
       </c>
       <c r="AD4" t="n">
-        <v>238450.310150291</v>
+        <v>272778.2909836107</v>
       </c>
       <c r="AE4" t="n">
-        <v>326258.2340327175</v>
+        <v>373227.2918526493</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.942280416125602e-06</v>
+        <v>5.703582919616122e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.770833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>295120.6060830393</v>
+        <v>337607.0029460258</v>
       </c>
     </row>
     <row r="5">
@@ -6995,28 +6995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>222.3475364421865</v>
+        <v>256.5049250749105</v>
       </c>
       <c r="AB5" t="n">
-        <v>304.2257086410617</v>
+        <v>350.9613546859649</v>
       </c>
       <c r="AC5" t="n">
-        <v>275.1908339919125</v>
+        <v>317.4660955721962</v>
       </c>
       <c r="AD5" t="n">
-        <v>222347.5364421865</v>
+        <v>256504.9250749105</v>
       </c>
       <c r="AE5" t="n">
-        <v>304225.7086410617</v>
+        <v>350961.3546859649</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.095948327455799e-06</v>
+        <v>5.925905428885354e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.479166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>275190.8339919125</v>
+        <v>317466.0955721962</v>
       </c>
     </row>
     <row r="6">
@@ -7101,28 +7101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>222.9520368931088</v>
+        <v>257.1094255258328</v>
       </c>
       <c r="AB6" t="n">
-        <v>305.0528128266908</v>
+        <v>351.788458871594</v>
       </c>
       <c r="AC6" t="n">
-        <v>275.9390005149134</v>
+        <v>318.2142620951971</v>
       </c>
       <c r="AD6" t="n">
-        <v>222952.0368931087</v>
+        <v>257109.4255258327</v>
       </c>
       <c r="AE6" t="n">
-        <v>305052.8128266908</v>
+        <v>351788.458871594</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.096389479354354e-06</v>
+        <v>5.926543675323448e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.479166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>275939.0005149134</v>
+        <v>318214.2620951971</v>
       </c>
     </row>
   </sheetData>
@@ -7398,28 +7398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>327.3972741224433</v>
+        <v>367.7910689424174</v>
       </c>
       <c r="AB2" t="n">
-        <v>447.9593942026736</v>
+        <v>503.227966323819</v>
       </c>
       <c r="AC2" t="n">
-        <v>405.2067783349282</v>
+        <v>455.2005955027594</v>
       </c>
       <c r="AD2" t="n">
-        <v>327397.2741224433</v>
+        <v>367791.0689424174</v>
       </c>
       <c r="AE2" t="n">
-        <v>447959.3942026736</v>
+        <v>503227.966323819</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.213861247500941e-06</v>
+        <v>4.826205987014889e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>405206.7783349282</v>
+        <v>455200.5955027594</v>
       </c>
     </row>
     <row r="3">
@@ -7504,28 +7504,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>199.5171597444631</v>
+        <v>239.825524201314</v>
       </c>
       <c r="AB3" t="n">
-        <v>272.9881800381173</v>
+        <v>328.1398625674882</v>
       </c>
       <c r="AC3" t="n">
-        <v>246.9345712766764</v>
+        <v>296.8226546313343</v>
       </c>
       <c r="AD3" t="n">
-        <v>199517.1597444631</v>
+        <v>239825.524201314</v>
       </c>
       <c r="AE3" t="n">
-        <v>272988.1800381173</v>
+        <v>328139.8625674882</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.184287621610223e-06</v>
+        <v>6.28348034206839e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.920833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>246934.5712766764</v>
+        <v>296822.6546313343</v>
       </c>
     </row>
   </sheetData>
@@ -7801,28 +7801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>218.7997690940123</v>
+        <v>258.0053881998424</v>
       </c>
       <c r="AB2" t="n">
-        <v>299.3714968388432</v>
+        <v>353.0143545292567</v>
       </c>
       <c r="AC2" t="n">
-        <v>270.7999013511671</v>
+        <v>319.3231599918483</v>
       </c>
       <c r="AD2" t="n">
-        <v>218799.7690940123</v>
+        <v>258005.3881998424</v>
       </c>
       <c r="AE2" t="n">
-        <v>299371.4968388432</v>
+        <v>353014.3545292567</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.911706823126753e-06</v>
+        <v>5.999567622549124e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.825000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>270799.9013511671</v>
+        <v>319323.1599918483</v>
       </c>
     </row>
     <row r="3">
@@ -7907,28 +7907,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>201.8564759567222</v>
+        <v>233.2039925790229</v>
       </c>
       <c r="AB3" t="n">
-        <v>276.188935683076</v>
+        <v>319.0799908805157</v>
       </c>
       <c r="AC3" t="n">
-        <v>249.8298512951701</v>
+        <v>288.6274443825538</v>
       </c>
       <c r="AD3" t="n">
-        <v>201856.4759567222</v>
+        <v>233203.9925790229</v>
       </c>
       <c r="AE3" t="n">
-        <v>276188.935683076</v>
+        <v>319079.9908805157</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.137576613422103e-06</v>
+        <v>6.345994679085216e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.34375</v>
       </c>
       <c r="AH3" t="n">
-        <v>249829.8512951701</v>
+        <v>288627.4443825538</v>
       </c>
     </row>
   </sheetData>
@@ -13521,28 +13521,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.3230132017524</v>
+        <v>237.5789727976373</v>
       </c>
       <c r="AB2" t="n">
-        <v>272.7225401732397</v>
+        <v>325.0660318261263</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.6942837076748</v>
+        <v>294.0421859817784</v>
       </c>
       <c r="AD2" t="n">
-        <v>199323.0132017524</v>
+        <v>237578.9727976373</v>
       </c>
       <c r="AE2" t="n">
-        <v>272722.5401732397</v>
+        <v>325066.0318261263</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.018538379877076e-06</v>
+        <v>6.27888695141941e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.887499999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>246694.2837076748</v>
+        <v>294042.1859817784</v>
       </c>
     </row>
     <row r="3">
@@ -13627,28 +13627,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>200.5869691905786</v>
+        <v>238.8429287864635</v>
       </c>
       <c r="AB3" t="n">
-        <v>274.4519405189536</v>
+        <v>326.7954321718402</v>
       </c>
       <c r="AC3" t="n">
-        <v>248.2586325116229</v>
+        <v>295.6065347857266</v>
       </c>
       <c r="AD3" t="n">
-        <v>200586.9691905786</v>
+        <v>238842.9287864635</v>
       </c>
       <c r="AE3" t="n">
-        <v>274451.9405189536</v>
+        <v>326795.4321718402</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.017509831533111e-06</v>
+        <v>6.277279864920454e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.889583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>248258.6325116229</v>
+        <v>295606.5347857266</v>
       </c>
     </row>
   </sheetData>
@@ -13924,28 +13924,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>233.8553743487507</v>
+        <v>270.3142446531282</v>
       </c>
       <c r="AB2" t="n">
-        <v>319.9712401547924</v>
+        <v>369.855874957231</v>
       </c>
       <c r="AC2" t="n">
-        <v>289.4336340769701</v>
+        <v>334.5573493472928</v>
       </c>
       <c r="AD2" t="n">
-        <v>233855.3743487507</v>
+        <v>270314.2446531282</v>
       </c>
       <c r="AE2" t="n">
-        <v>319971.2401547924</v>
+        <v>369855.874957231</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.429960636783268e-06</v>
+        <v>5.589724987223163e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.175</v>
       </c>
       <c r="AH2" t="n">
-        <v>289433.6340769701</v>
+        <v>334557.3493472928</v>
       </c>
     </row>
   </sheetData>
@@ -14221,28 +14221,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>466.389196154067</v>
+        <v>516.0871186433735</v>
       </c>
       <c r="AB2" t="n">
-        <v>638.1342738171738</v>
+        <v>706.1331638846432</v>
       </c>
       <c r="AC2" t="n">
-        <v>577.2316343511403</v>
+        <v>638.740805787612</v>
       </c>
       <c r="AD2" t="n">
-        <v>466389.1961540669</v>
+        <v>516087.1186433735</v>
       </c>
       <c r="AE2" t="n">
-        <v>638134.2738171738</v>
+        <v>706133.1638846432</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.653175838540201e-06</v>
+        <v>3.919751055534854e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.08125</v>
       </c>
       <c r="AH2" t="n">
-        <v>577231.6343511404</v>
+        <v>638740.805787612</v>
       </c>
     </row>
     <row r="3">
@@ -14327,28 +14327,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>221.5623510544469</v>
+        <v>262.8776475414124</v>
       </c>
       <c r="AB3" t="n">
-        <v>303.1513833536225</v>
+        <v>359.6807947094717</v>
       </c>
       <c r="AC3" t="n">
-        <v>274.2190408020811</v>
+        <v>325.3533644775648</v>
       </c>
       <c r="AD3" t="n">
-        <v>221562.3510544469</v>
+        <v>262877.6475414124</v>
       </c>
       <c r="AE3" t="n">
-        <v>303151.3833536225</v>
+        <v>359680.7947094717</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.007998854160828e-06</v>
+        <v>5.921340572671338e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.997916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>274219.0408020811</v>
+        <v>325353.3644775648</v>
       </c>
     </row>
     <row r="4">
@@ -14433,28 +14433,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>207.4377902319743</v>
+        <v>240.6265727888586</v>
       </c>
       <c r="AB4" t="n">
-        <v>283.82553610468</v>
+        <v>329.2358925847357</v>
       </c>
       <c r="AC4" t="n">
-        <v>256.7376252905746</v>
+        <v>297.8140810820238</v>
       </c>
       <c r="AD4" t="n">
-        <v>207437.7902319743</v>
+        <v>240626.5727888586</v>
       </c>
       <c r="AE4" t="n">
-        <v>283825.53610468</v>
+        <v>329235.8925847357</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.169562075785093e-06</v>
+        <v>6.160030975055586e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.6875</v>
       </c>
       <c r="AH4" t="n">
-        <v>256737.6252905746</v>
+        <v>297814.0810820238</v>
       </c>
     </row>
   </sheetData>
@@ -14730,28 +14730,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>741.3388649815039</v>
+        <v>801.0418343750015</v>
       </c>
       <c r="AB2" t="n">
-        <v>1014.332540630175</v>
+        <v>1096.020777263476</v>
       </c>
       <c r="AC2" t="n">
-        <v>917.5260665770918</v>
+        <v>991.4180925562709</v>
       </c>
       <c r="AD2" t="n">
-        <v>741338.8649815039</v>
+        <v>801041.8343750015</v>
       </c>
       <c r="AE2" t="n">
-        <v>1014332.540630175</v>
+        <v>1096020.777263476</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.037133366205188e-06</v>
+        <v>2.958261955106801e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.16458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>917526.0665770918</v>
+        <v>991418.092556271</v>
       </c>
     </row>
     <row r="3">
@@ -14836,28 +14836,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>294.8444400696482</v>
+        <v>337.4040134186098</v>
       </c>
       <c r="AB3" t="n">
-        <v>403.4191705219579</v>
+        <v>461.6510563738693</v>
       </c>
       <c r="AC3" t="n">
-        <v>364.9174110897034</v>
+        <v>417.5917274848735</v>
       </c>
       <c r="AD3" t="n">
-        <v>294844.4400696482</v>
+        <v>337404.0134186099</v>
       </c>
       <c r="AE3" t="n">
-        <v>403419.1705219579</v>
+        <v>461651.0563738693</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.502819611560621e-06</v>
+        <v>5.086686107245294e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.81875</v>
       </c>
       <c r="AH3" t="n">
-        <v>364917.4110897034</v>
+        <v>417591.7274848735</v>
       </c>
     </row>
     <row r="4">
@@ -14942,28 +14942,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>226.6506051764744</v>
+        <v>260.7665365393037</v>
       </c>
       <c r="AB4" t="n">
-        <v>310.1133571213059</v>
+        <v>356.7922795007423</v>
       </c>
       <c r="AC4" t="n">
-        <v>280.5165735645706</v>
+        <v>322.7405251063</v>
       </c>
       <c r="AD4" t="n">
-        <v>226650.6051764743</v>
+        <v>260766.5365393037</v>
       </c>
       <c r="AE4" t="n">
-        <v>310113.3571213059</v>
+        <v>356792.2795007423</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.036456920314713e-06</v>
+        <v>5.861617672601534e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.652083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>280516.5735645706</v>
+        <v>322740.5251063</v>
       </c>
     </row>
     <row r="5">
@@ -15048,28 +15048,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>219.3930587042574</v>
+        <v>253.5089900670836</v>
       </c>
       <c r="AB5" t="n">
-        <v>300.1832618576705</v>
+        <v>346.8621842369337</v>
       </c>
       <c r="AC5" t="n">
-        <v>271.5341926559172</v>
+        <v>313.7581441975974</v>
       </c>
       <c r="AD5" t="n">
-        <v>219393.0587042574</v>
+        <v>253508.9900670836</v>
       </c>
       <c r="AE5" t="n">
-        <v>300183.2618576705</v>
+        <v>346862.1842369337</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.11207654450604e-06</v>
+        <v>5.971430147825674e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.5125</v>
       </c>
       <c r="AH5" t="n">
-        <v>271534.1926559172</v>
+        <v>313758.1441975974</v>
       </c>
     </row>
   </sheetData>
@@ -15345,28 +15345,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>266.7062274939307</v>
+        <v>316.5158752857585</v>
       </c>
       <c r="AB2" t="n">
-        <v>364.9192267055339</v>
+        <v>433.0709842608853</v>
       </c>
       <c r="AC2" t="n">
-        <v>330.0918478761084</v>
+        <v>391.7392973419695</v>
       </c>
       <c r="AD2" t="n">
-        <v>266706.2274939307</v>
+        <v>316515.8752857585</v>
       </c>
       <c r="AE2" t="n">
-        <v>364919.2267055339</v>
+        <v>433070.9842608853</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.907954259620827e-06</v>
+        <v>4.847386497659536e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.65</v>
       </c>
       <c r="AH2" t="n">
-        <v>330091.8478761084</v>
+        <v>391739.2973419694</v>
       </c>
     </row>
   </sheetData>
@@ -15642,28 +15642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>253.9508716355923</v>
+        <v>293.4929843140825</v>
       </c>
       <c r="AB2" t="n">
-        <v>347.4667860934059</v>
+        <v>401.570049135173</v>
       </c>
       <c r="AC2" t="n">
-        <v>314.3050437014521</v>
+        <v>363.244767252815</v>
       </c>
       <c r="AD2" t="n">
-        <v>253950.8716355923</v>
+        <v>293492.9843140825</v>
       </c>
       <c r="AE2" t="n">
-        <v>347466.7860934059</v>
+        <v>401570.049135173</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.670651660484418e-06</v>
+        <v>5.586389068125512e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.268750000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>314305.0437014521</v>
+        <v>363244.767252815</v>
       </c>
     </row>
     <row r="3">
@@ -15748,28 +15748,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>203.6128066643057</v>
+        <v>235.2977192215482</v>
       </c>
       <c r="AB3" t="n">
-        <v>278.592024841033</v>
+        <v>321.9447200415178</v>
       </c>
       <c r="AC3" t="n">
-        <v>252.0035929966491</v>
+        <v>291.2187678131034</v>
       </c>
       <c r="AD3" t="n">
-        <v>203612.8066643057</v>
+        <v>235297.7192215482</v>
       </c>
       <c r="AE3" t="n">
-        <v>278592.024841033</v>
+        <v>321944.7200415178</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.164143488849215e-06</v>
+        <v>6.337437549479516e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.170833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>252003.5929966491</v>
+        <v>291218.7678131034</v>
       </c>
     </row>
   </sheetData>
@@ -16045,28 +16045,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>364.8407380649971</v>
+        <v>413.7527241286126</v>
       </c>
       <c r="AB2" t="n">
-        <v>499.1911934579203</v>
+        <v>566.1147306346911</v>
       </c>
       <c r="AC2" t="n">
-        <v>451.549086573536</v>
+        <v>512.0855352899301</v>
       </c>
       <c r="AD2" t="n">
-        <v>364840.7380649971</v>
+        <v>413752.7241286125</v>
       </c>
       <c r="AE2" t="n">
-        <v>499191.1934579203</v>
+        <v>566114.7306346911</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.010499335265684e-06</v>
+        <v>4.494406651962312e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.87916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>451549.086573536</v>
+        <v>512085.5352899302</v>
       </c>
     </row>
     <row r="3">
@@ -16151,28 +16151,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>202.6125904748888</v>
+        <v>235.2774750870131</v>
       </c>
       <c r="AB3" t="n">
-        <v>277.2234849242495</v>
+        <v>321.9170211235388</v>
       </c>
       <c r="AC3" t="n">
-        <v>250.7656646087652</v>
+        <v>291.1937124409807</v>
       </c>
       <c r="AD3" t="n">
-        <v>202612.5904748888</v>
+        <v>235277.4750870131</v>
       </c>
       <c r="AE3" t="n">
-        <v>277223.4849242495</v>
+        <v>321917.0211235388</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.180707532068612e-06</v>
+        <v>6.241422983200848e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.835416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>250765.6646087652</v>
+        <v>291193.7124409807</v>
       </c>
     </row>
     <row r="4">
@@ -16257,28 +16257,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>202.3394524206474</v>
+        <v>235.0043370327718</v>
       </c>
       <c r="AB4" t="n">
-        <v>276.8497653884361</v>
+        <v>321.5433015877255</v>
       </c>
       <c r="AC4" t="n">
-        <v>250.4276123409311</v>
+        <v>290.8556601731465</v>
       </c>
       <c r="AD4" t="n">
-        <v>202339.4524206474</v>
+        <v>235004.3370327718</v>
       </c>
       <c r="AE4" t="n">
-        <v>276849.7653884361</v>
+        <v>321543.3015877255</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.192184785644672e-06</v>
+        <v>6.258557497802543e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.8125</v>
       </c>
       <c r="AH4" t="n">
-        <v>250427.6123409311</v>
+        <v>290855.6601731465</v>
       </c>
     </row>
   </sheetData>
